--- a/10v10/11/Alamo-Cup/MIZZOU_UTSA.xlsx
+++ b/10v10/11/Alamo-Cup/MIZZOU_UTSA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\11\Alamo-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\Alamo-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FDF955-9493-4B08-B0EF-95EC07C008CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06008D80-13B7-435F-8B5D-537DFAF8BE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
   <si>
     <t>A</t>
   </si>
@@ -99,9 +99,6 @@
     <t>DANIEL WILLIAMS</t>
   </si>
   <si>
-    <t>BROOK WILLET</t>
-  </si>
-  <si>
     <t>EP</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>ED</t>
-  </si>
-  <si>
-    <t>1,55</t>
   </si>
   <si>
     <t>DAVID BECKER</t>
@@ -186,9 +180,6 @@
     <t>1,13</t>
   </si>
   <si>
-    <t>R35</t>
-  </si>
-  <si>
     <t>S,R35</t>
   </si>
   <si>
@@ -207,12 +198,6 @@
     <t>YB32</t>
   </si>
   <si>
-    <t>16,?</t>
-  </si>
-  <si>
-    <t>YA?</t>
-  </si>
-  <si>
     <t>RCB</t>
   </si>
   <si>
@@ -223,6 +208,213 @@
   </si>
   <si>
     <t>NATALIE TERZICH</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>BROOK WILLETT</t>
+  </si>
+  <si>
+    <t>SAM BENAVIDES</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>0438</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>0555</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0821</t>
+  </si>
+  <si>
+    <t>0851</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>0944</t>
+  </si>
+  <si>
+    <t>0939</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>2237</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2519</t>
+  </si>
+  <si>
+    <t>2535</t>
+  </si>
+  <si>
+    <t>2539</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>2836</t>
+  </si>
+  <si>
+    <t>2847</t>
+  </si>
+  <si>
+    <t>2927</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t>3256</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3337</t>
+  </si>
+  <si>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>YA11</t>
+  </si>
+  <si>
+    <t>3407</t>
+  </si>
+  <si>
+    <t>3423</t>
+  </si>
+  <si>
+    <t>OT-0415</t>
+  </si>
+  <si>
+    <t>OT-0359</t>
   </si>
 </sst>
 </file>
@@ -502,7 +694,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,20 +710,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="77" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -775,21 +967,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -802,142 +994,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="23">
+      <c r="C2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="19">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>17</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="24" t="str">
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="25" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$X$59,"2CA"),"!","")</f>
         <v>^</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="15" t="str">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="26" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>200^</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="24"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="23">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>13</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="24" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="25" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$X$59,"2CB"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="15" t="str">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="26" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>160*</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -975,44 +1167,60 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="S7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1024,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
@@ -1042,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="K8" s="10">
         <v>13</v>
@@ -1063,13 +1271,13 @@
         <v>12</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="10">
-        <v>11</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>7</v>
@@ -1081,14 +1289,12 @@
         <v>11</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="W8" s="10">
         <v>1</v>
       </c>
-      <c r="X8" s="11">
-        <v>32</v>
-      </c>
+      <c r="X8" s="11"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
@@ -1125,44 +1331,60 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1184,7 +1406,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="10">
         <v>11</v>
@@ -1265,46 +1487,62 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="P13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="V13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1331,7 +1569,7 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="10">
         <v>55</v>
@@ -1407,44 +1645,60 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1519,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -1554,57 +1808,71 @@
     </row>
     <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="C19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10">
         <v>11</v>
@@ -1622,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="10">
         <v>11</v>
@@ -1707,51 +1975,67 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B23" s="10">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C23" s="11">
         <v>11</v>
@@ -1771,7 +2055,7 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="10">
         <v>4</v>
@@ -1782,8 +2066,8 @@
       <c r="M23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>9</v>
+      <c r="N23" s="10">
+        <v>14</v>
       </c>
       <c r="O23" s="11">
         <v>11</v>
@@ -1791,14 +2075,14 @@
       <c r="P23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>9</v>
+      <c r="Q23" s="10">
+        <v>14</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T23" s="10">
         <v>11</v>
@@ -1847,44 +2131,60 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="G25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
@@ -1928,7 +2228,7 @@
         <v>34</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>5</v>
@@ -1941,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="T26" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U26" s="11">
         <v>11</v>
@@ -1986,44 +2286,58 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="P28" s="6" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U28" s="5"/>
+      <c r="U28" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="7" t="s">
         <v>1</v>
@@ -2055,14 +2369,12 @@
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29" s="10">
-        <v>55</v>
-      </c>
-      <c r="L29" s="11">
         <v>1</v>
       </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="9" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>5</v>
@@ -2082,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T29" s="10">
         <v>33</v>
@@ -2124,17 +2436,21 @@
     </row>
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
         <v>0</v>
@@ -2179,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E32" s="10">
         <v>11</v>
@@ -29144,6 +29460,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29153,13 +29476,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29174,8 +29490,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29220,7 +29536,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12"/>
     </row>
@@ -29258,7 +29574,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12"/>
     </row>
@@ -29280,7 +29596,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="12"/>
     </row>
@@ -29289,7 +29605,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12"/>
     </row>
@@ -29299,7 +29615,7 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="12" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29307,7 +29623,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="12"/>
     </row>
@@ -29316,7 +29632,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29324,7 +29640,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29332,9 +29648,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -29420,7 +29738,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29434,7 +29752,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -29568,7 +29886,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29576,7 +29894,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29596,7 +29914,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -29685,7 +30003,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29699,7 +30017,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
